--- a/Project/US Healthcare Mock Data/Enrollment Mapping Document - US Healthcare Bootcamp.xlsx
+++ b/Project/US Healthcare Mock Data/Enrollment Mapping Document - US Healthcare Bootcamp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\US Healthcare Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Training\Bootcamp-Tasks\Project\US Healthcare Mock Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D6A4D2-E887-4D54-8A41-DAAA3A05FC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280581D0-8511-41E8-8AE5-B4FFB643DCE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DCFCB83B-306A-C44E-BEF9-419E09E46EB5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{DCFCB83B-306A-C44E-BEF9-419E09E46EB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Target Table Layout" sheetId="9" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="256">
   <si>
     <t>MEMBER_ID</t>
   </si>
@@ -938,6 +938,12 @@
   </si>
   <si>
     <t>sample_table_1 have same member_id for different members in family ( 18200, 152200) and created new main_table</t>
+  </si>
+  <si>
+    <t>gender_crosswalk, Relationship_Crosswalk</t>
+  </si>
+  <si>
+    <t>Gender_Description, Relationship_Description</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1179,7 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1263,6 +1269,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2115,9 +2124,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3575D5F9-9329-4553-9A1F-184431E0650A}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3195,9 +3204,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8756D5-8B8A-5542-ACF7-F979887AC520}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3393,22 +3402,24 @@
       </c>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="D10" s="18" t="s">
+    <row r="10" spans="1:7" s="46" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A10" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="18">
+      <c r="E10" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="35">
         <v>10</v>
       </c>
-      <c r="G10" s="18"/>
+      <c r="G10" s="35"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="18"/>
